--- a/excel_data/finished/company_requires.xlsx
+++ b/excel_data/finished/company_requires.xlsx
@@ -29,7 +29,7 @@
     <t>jobid</t>
   </si>
   <si>
-    <t>company id</t>
+    <t>companyid</t>
   </si>
 </sst>
 </file>
@@ -383,11 +383,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA0BFB6-1986-4512-BBE6-EEB685867251}">
   <dimension ref="A1:B2282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2260" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
